--- a/doan4/data/test_data.xlsx
+++ b/doan4/data/test_data.xlsx
@@ -1238,7 +1238,7 @@
       </c>
       <c r="G2" s="10" t="inlineStr">
         <is>
-          <t>5d77c15bbbe88b718f8bb5fdf15f67ec.webm</t>
+          <t>36fc29e5a282a19416227b791f26a552.webm</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="G3" s="10" t="inlineStr">
         <is>
-          <t>cc6532d3ccec907947da9661b339444c.webm</t>
+          <t>1d96213d2090e6f94b248e76569f4da6.webm</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G4" s="10" t="inlineStr">
         <is>
-          <t>66ac51d7e98443049d8e4af2558bf7f2.webm</t>
+          <t>eeb3049813951337ce6e59955a41111d.webm</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="G5" s="10" t="inlineStr">
         <is>
-          <t>b838ace3c945b6083543dd5c3db94ad7.webm</t>
+          <t>de208752128e38b08d95ba64d8d45796.webm</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G6" s="10" t="inlineStr">
         <is>
-          <t>5537d77d1eeb317b53b065a75b51f93a.webm</t>
+          <t>bf2c4e578ab34942ced2e3fef5c6fe50.webm</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>a883cd4acde181ad0c9963b8993b5c09.webm</t>
+          <t>9c35620463f9eec19f90070458fd7b48.webm</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="G8" s="10" t="inlineStr">
         <is>
-          <t>b60bb32e291da61df5b26a1c3c65077e.webm</t>
+          <t>c997ae4adad249ce866cccb7c305c9cc.webm</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G9" s="10" t="inlineStr">
         <is>
-          <t>461b48a88fc5aca268f4ea70c1abf65e.webm</t>
+          <t>d6111e8adf5debfacb4fc123b51a3108.webm</t>
         </is>
       </c>
     </row>

--- a/doan4/data/test_data.xlsx
+++ b/doan4/data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -47,11 +53,17 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF9c0006"/>
       <sz val="11"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -60,11 +72,8 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="00006100"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -79,12 +88,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFffc7ce"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -127,18 +130,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -146,25 +155,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,209 +539,199 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16.14785714285714" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="18.43357142857143" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="16.14785714285714" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>TestCaseID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>ExpectedMessage</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Screenshot</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>DangNhap-1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>luuthianduyen@gmail.com</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>luuthianduyen247</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Tài khoản của tôi</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>DangNhap-1.png</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>DangNhap-1.webm</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.5" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>DangNhap-2</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>123456789</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Email là bắt buộc</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>DangNhap-2.png</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>DangNhap-2.webm</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.5" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>DangNhap-3</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>luuthianduyen@gmail.com</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Mật khẩu là bắt buộc</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>DangNhap-3.png</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>DangNhap-3.webm</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.5" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>DangNhap-4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>sai_email@gmail.com</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>sai_pass</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Sai tên đăng nhập hoặc mật khẩu</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>DangNhap-4.png</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>DangNhap-4.webm</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -748,395 +744,395 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>TestCaseID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>ExpectedMessage</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>Screenshot</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Hiring-1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>0912345678</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>Đăng ký thành công</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>Hiring-1.png</t>
         </is>
       </c>
-      <c r="J2" s="7" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Hiring-1.webm</t>
         </is>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Hiring-2</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>0912345678</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Họ và tên là bắt buộc</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Hiring-2.png</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Hiring-2.webm</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Hiring-3</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>Số điện thoại là bắt buộc</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>Hiring-3.png</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Hiring-3.webm</t>
         </is>
       </c>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Hiring-4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>0912345678</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Hệ thống không báo lỗi và tiếp tục đăng ký</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="10" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>Hiring-4.png</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Hiring-4.webm</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Hiring-5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>0912345678</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>Hệ thống không báo lỗi và tiếp tục đăng ký</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" s="10" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>Hiring-5.png</t>
         </is>
       </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Hiring-5.webm</t>
         </is>
       </c>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Hiring-6</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>abc12345</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>Hệ thống không báo lỗi</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H7" s="10" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Hiring-6.png</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Hiring-6.webm</t>
         </is>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Hiring-7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Anh</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Nguyen Van A</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>Hà Nội</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Số điện thoại ít nhất 10 chữ số</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>Hiring-7.png</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>Hiring-7.webm</t>
         </is>
@@ -1161,59 +1157,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>TestCaseID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Keyword</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ExpectedCount</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>ExpectedMessage</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Screenshot</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Search-1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Lớp 10</t>
         </is>
@@ -1221,34 +1217,34 @@
       <c r="C2" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Hiển thị đúng và đủ kết quả phù hợp</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>Search-1.png</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>36fc29e5a282a19416227b791f26a552.webm</t>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>7ba20147b9ec88a749f681327b39f742.webm</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Search-2</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>abcdefxyz</t>
         </is>
@@ -1256,65 +1252,65 @@
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Hiển thị không có lớp gia sư nào phù hợp</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>Search-2.png</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>1d96213d2090e6f94b248e76569f4da6.webm</t>
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>228ed110841a95bcd8c4e135e4c399c5.webm</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Search-3</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="6" t="n"/>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Không hiển thị kết quả tìm kiếm nào</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>Search-3.png</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>eeb3049813951337ce6e59955a41111d.webm</t>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t>e05bb73289ef6a0e2340269e023b52e3.webm</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Search-4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>@@@!!!</t>
         </is>
@@ -1322,34 +1318,34 @@
       <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Hiển thị không có lớp gia sư nào phù hợp</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>Search-4.png</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>de208752128e38b08d95ba64d8d45796.webm</t>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t>19b65c3a7f7c5492486e58aa9290b481.webm</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Search-5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>lớp 10</t>
         </is>
@@ -1357,34 +1353,34 @@
       <c r="C6" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Hiển thị đúng và đủ kết quả phù hợp</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>Search-5.png</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>bf2c4e578ab34942ced2e3fef5c6fe50.webm</t>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>45828343b813a7268db719a280a41062.webm</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Search-6</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">   Lớp 10   </t>
         </is>
@@ -1392,88 +1388,88 @@
       <c r="C7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Hiển thị đúng và đủ kết quả phù hợp</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Search-6.png</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
-        <is>
-          <t>9c35620463f9eec19f90070458fd7b48.webm</t>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>0076b744d63935a2f25c0546c1bc95b8.webm</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Search-7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Hiển thị đúng và đủ kết quả phù hợp</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>Search-7.png</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t>c997ae4adad249ce866cccb7c305c9cc.webm</t>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>5bf7d0cfacadaeb4dca05141c57dec47.webm</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Search-8</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>Không hiển thị kết quả tìm kiếm nào</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>Search-8.png</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
-        <is>
-          <t>d6111e8adf5debfacb4fc123b51a3108.webm</t>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>a1243269d8a95a86841f4ea2675907f8.webm</t>
         </is>
       </c>
     </row>

--- a/doan4/data/test_data.xlsx
+++ b/doan4/data/test_data.xlsx
@@ -612,17 +612,17 @@
           <t>Tài khoản của tôi</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>DangNhap-1.png</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>DangNhap-1.webm</t>
         </is>
@@ -645,17 +645,17 @@
           <t>Email là bắt buộc</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>DangNhap-2.png</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>DangNhap-2.webm</t>
         </is>
@@ -678,17 +678,17 @@
           <t>Mật khẩu là bắt buộc</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>DangNhap-3.png</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>DangNhap-3.webm</t>
         </is>
@@ -715,23 +715,33 @@
           <t>Sai tên đăng nhập hoặc mật khẩu</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>DangNhap-4.png</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>DangNhap-4.webm</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
